--- a/8. Test Management/Registered_User_Login_Test_Cases.xlsx
+++ b/8. Test Management/Registered_User_Login_Test_Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Not Automated</t>
-  </si>
-  <si>
-    <t>Tester Name</t>
   </si>
   <si>
     <t>SOAR_TC_001</t>
@@ -411,9 +408,6 @@
     <t>Invalid and then valid commercial registration numbers.</t>
   </si>
   <si>
-    <t>Verify Validation for Start Date</t>
-  </si>
-  <si>
     <t>Ensure the system validates the start date provided by [X] and notifies the user based on the result.</t>
   </si>
   <si>
@@ -427,12 +421,6 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
-        - If the start date is less than two years, the system notifies the user that they cannot proceed.
-        - If the start date is more than two years, the system allows the user to proceed to the next step.
-        </t>
-  </si>
-  <si>
     <t>Start date data from [X].</t>
   </si>
   <si>
@@ -446,6 +434,27 @@
   </si>
   <si>
     <t>SOAR_TC_013</t>
+  </si>
+  <si>
+    <t>SOAR_TC_014</t>
+  </si>
+  <si>
+    <t>Verify Validation for Start Date for more than 2 years</t>
+  </si>
+  <si>
+    <t>Verify Validation for Start Date for less than 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        - start date is more than two years, the system allows the user to proceed to the next step.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        - start date is less than two years, the system notifies the user that they cannot proceed.</t>
+  </si>
+  <si>
+    <t>Vikas Sangwan</t>
   </si>
 </sst>
 </file>
@@ -825,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +920,7 @@
     </row>
     <row r="2" spans="1:18" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -923,10 +932,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -947,7 +956,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -955,32 +964,32 @@
     </row>
     <row r="3" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>24</v>
@@ -991,38 +1000,38 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
@@ -1033,38 +1042,38 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>24</v>
@@ -1075,38 +1084,38 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>24</v>
@@ -1117,37 +1126,37 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -1155,28 +1164,28 @@
       <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>26</v>
+      <c r="O7" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1185,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>24</v>
@@ -1193,28 +1202,28 @@
       <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>26</v>
+      <c r="O8" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
@@ -1223,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>24</v>
@@ -1231,37 +1240,37 @@
       <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>26</v>
+      <c r="O9" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>24</v>
@@ -1269,28 +1278,28 @@
       <c r="L10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>26</v>
+      <c r="O10" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>21</v>
@@ -1299,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>24</v>
@@ -1307,37 +1316,37 @@
       <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>26</v>
+      <c r="O11" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>24</v>
@@ -1345,28 +1354,28 @@
       <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>26</v>
+      <c r="O12" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>21</v>
@@ -1375,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>24</v>
@@ -1383,37 +1392,37 @@
       <c r="L13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>26</v>
+      <c r="O13" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
@@ -1421,8 +1430,46 @@
       <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>26</v>
+      <c r="O14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/8. Test Management/Registered_User_Login_Test_Cases.xlsx
+++ b/8. Test Management/Registered_User_Login_Test_Cases.xlsx
@@ -232,13 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-        1. Navigate to the account dashboard.
-        2. Check for the presence of the 'Upgrade to Premium' button.
-        3. Click on the 'Upgrade to Premium' button.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
         - The button is visible on the dashboard.
         - Clicking the button redirects the user to the upgrade options page.
         </t>
@@ -455,6 +448,12 @@
   </si>
   <si>
     <t>Vikas Sangwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to the account dashboard.
+        2. Check for the presence of the 'Upgrade to Premium' button.
+        3. Click on the 'Upgrade to Premium' button.
+        </t>
   </si>
 </sst>
 </file>
@@ -836,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +955,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1000,7 +999,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -1042,7 +1041,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -1084,7 +1083,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -1126,13 +1125,13 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
@@ -1144,10 +1143,10 @@
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>21</v>
@@ -1156,7 +1155,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -1165,27 +1164,27 @@
         <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1194,7 +1193,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>24</v>
@@ -1203,27 +1202,27 @@
         <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
@@ -1232,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>24</v>
@@ -1241,27 +1240,27 @@
         <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
@@ -1270,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>24</v>
@@ -1279,27 +1278,27 @@
         <v>25</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>21</v>
@@ -1308,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>24</v>
@@ -1317,27 +1316,27 @@
         <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
@@ -1346,7 +1345,7 @@
         <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>24</v>
@@ -1355,27 +1354,27 @@
         <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>21</v>
@@ -1384,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>24</v>
@@ -1393,27 +1392,27 @@
         <v>25</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -1422,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
@@ -1431,27 +1430,27 @@
         <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>21</v>
@@ -1460,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>24</v>
@@ -1469,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/8. Test Management/Registered_User_Login_Test_Cases.xlsx
+++ b/8. Test Management/Registered_User_Login_Test_Cases.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="164">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -454,6 +454,178 @@
         2. Check for the presence of the 'Upgrade to Premium' button.
         3. Click on the 'Upgrade to Premium' button.
         </t>
+  </si>
+  <si>
+    <t>Verify User is able to upload documents and receive a notification on success</t>
+  </si>
+  <si>
+    <t>Ensure the user is able to upload documents and user receives a notification once the documents are uploaded successfully</t>
+  </si>
+  <si>
+    <t>User is a verified individual investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Navigate to the upgrade options page.
+        2. Select one of the eligibility options.
+        3. Upload documents successfully
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User should receive a notification once the documents are uploaded successfully</t>
+  </si>
+  <si>
+    <t>Ensure when the user uploads the documents, a complaince staff member receives a request or approval</t>
+  </si>
+  <si>
+    <t>User made a request for premium upgrade and uploaded the documents</t>
+  </si>
+  <si>
+    <t>Complaince Staff member should be able to view and approve the upgrade request</t>
+  </si>
+  <si>
+    <t>Complaince staf member account and User account</t>
+  </si>
+  <si>
+    <t>Relation manager and uer account</t>
+  </si>
+  <si>
+    <t>Verify complaince staff member receives approval request can reject the request</t>
+  </si>
+  <si>
+    <t>Verify complaince staff member receives approval request can approve the request</t>
+  </si>
+  <si>
+    <t>Ensure when the user uploads the documents, a complaince staff member receives a request or approval and is able to reject the application</t>
+  </si>
+  <si>
+    <t>Complaince Staff member should be able to view and reject the upgrade request</t>
+  </si>
+  <si>
+    <t>Relation Manger should receive a notiication from the complaince team about the approved request status</t>
+  </si>
+  <si>
+    <t>Relation Manger should receive a notiication from the complaince team about the rejected request status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Navigate to the upgrade options page.
+        2. Select one of the eligibility options.
+        3. Upload documents successfully
+4. approve the request from complaince manager account
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Navigate to the upgrade options page.
+        2. Select one of the eligibility options.
+        3. Upload documents successfully
+4. Reject the request from complaince manager account
+        </t>
+  </si>
+  <si>
+    <t>Ensure the relation manager receives a request once the user successfully makes an upgrade request rejected by complaince manager</t>
+  </si>
+  <si>
+    <t>Ensure the relation manager receives a request once the user successfully makes an upgrade request approved by complaince manager</t>
+  </si>
+  <si>
+    <t>Verify Relation Manger receives a notification on upgrade request rejection</t>
+  </si>
+  <si>
+    <t>Verify Relation Manger receives a notification on upgrade request approval</t>
+  </si>
+  <si>
+    <t>SOAR_TC_015</t>
+  </si>
+  <si>
+    <t>SOAR_TC_016</t>
+  </si>
+  <si>
+    <t>SOAR_TC_017</t>
+  </si>
+  <si>
+    <t>SOAR_TC_018</t>
+  </si>
+  <si>
+    <t>SOAR_TC_019</t>
+  </si>
+  <si>
+    <t>Verify Approve button is shown for each department for a loan request</t>
+  </si>
+  <si>
+    <t>Ensure each department can see an approve button for a loan request</t>
+  </si>
+  <si>
+    <t>Loan request in review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Submit a loan request.
+        2. Login with all available department credentials to view the loan application
+        </t>
+  </si>
+  <si>
+    <t>Approve button should be displayed for all departments for the loan application in review</t>
+  </si>
+  <si>
+    <t>All department Credentials and Loan application info</t>
+  </si>
+  <si>
+    <t>All departments must be able to approve loan application successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Submit a loan request.
+        2. Login with all available department credentials to view the loan application.
+3. Approve the loan request from all department
+        </t>
+  </si>
+  <si>
+    <t>Ensure each department is able to approve a loan request</t>
+  </si>
+  <si>
+    <t>Verify each department is able to approve a loan request</t>
+  </si>
+  <si>
+    <t>System view should be able to view approval details from all departments with staff member details and timestamp'</t>
+  </si>
+  <si>
+    <t>Verify System User can view Approval details for application approved by all departments</t>
+  </si>
+  <si>
+    <t>Verify System User can view Approval details for application approved by some departments</t>
+  </si>
+  <si>
+    <t>System view should be able to view approval details from some departments with staff member details and timestamp'</t>
+  </si>
+  <si>
+    <t>Laon request approved by all departments</t>
+  </si>
+  <si>
+    <t>Laon request approved by some departments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        1. Submit a loan request.
+        2. Login with all available department credentials to view the loan application.
+3. Approve the loan request from some department
+        </t>
+  </si>
+  <si>
+    <t>System view should be able to view approval details from all departments that approved the application with staff member details and timestamp'</t>
+  </si>
+  <si>
+    <t>SOAR_TC_020</t>
+  </si>
+  <si>
+    <t>SOAR_TC_021</t>
+  </si>
+  <si>
+    <t>SOAR_TC_022</t>
+  </si>
+  <si>
+    <t>SOAR_TC_023</t>
   </si>
 </sst>
 </file>
@@ -833,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,6 +1174,8 @@
         <v>113</v>
       </c>
       <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1044,6 +1218,8 @@
         <v>113</v>
       </c>
       <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1086,6 +1262,8 @@
         <v>113</v>
       </c>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1128,348 +1306,800 @@
         <v>113</v>
       </c>
       <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="144" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
